--- a/medicine/Enfance/Émile_Desbeaux/Émile_Desbeaux.xlsx
+++ b/medicine/Enfance/Émile_Desbeaux/Émile_Desbeaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Desbeaux</t>
+          <t>Émile_Desbeaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Émile Desbeaux, né le 5 septembre 1845 à Paris et mort le 7 août 1903 à Paris 14e[1], est un dramaturge, auteur de romans pour la jeunesse, journaliste, publiciste et directeur de théâtre français. Il est connu du grand public pour ses livres de vulgarisation scientifique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Émile Desbeaux, né le 5 septembre 1845 à Paris et mort le 7 août 1903 à Paris 14e, est un dramaturge, auteur de romans pour la jeunesse, journaliste, publiciste et directeur de théâtre français. Il est connu du grand public pour ses livres de vulgarisation scientifique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Desbeaux</t>
+          <t>Émile_Desbeaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Émile Desbeaux est élève à l'institution Massin et au collège Charlemagne avant de faire des études de droit que la guerre de 1870 viendra interrompre[2]. Il est rédacteur en chef au "Siffet" (journal satirique républicain), à la "Presse illustrée" et chroniqueur dans divers journaux.
-En 1892, il est nommé, avec Émile Marck, acteur, à la direction du théâtre de l'Odéon (Paris) jusqu'en 1896[3],[4].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Émile Desbeaux est élève à l'institution Massin et au collège Charlemagne avant de faire des études de droit que la guerre de 1870 viendra interrompre. Il est rédacteur en chef au "Siffet" (journal satirique républicain), à la "Presse illustrée" et chroniqueur dans divers journaux.
+En 1892, il est nommé, avec Émile Marck, acteur, à la direction du théâtre de l'Odéon (Paris) jusqu'en 1896,.  
 Il se rend célèbre par une série d'ouvrages de vulgarisation scientifique destinés à la jeunesse écrits sous forme de romans. Deux d'entre eux recevront le Prix Montyon de l'Académie française.
-Ouvert à toutes formes de découvertes scientifiques, il se prête, à plusieurs reprises, à des expériences de suggestions mentales[5] (télépathie) et de séances de spiritisme, très à la mode à cette époque[6]. 
-Sa sœur, Suzanne Émilie, est la femme du sculpteur Jean Félix Coutan de 1881 à 1883 (décès)[7],[8]
+Ouvert à toutes formes de découvertes scientifiques, il se prête, à plusieurs reprises, à des expériences de suggestions mentales (télépathie) et de séances de spiritisme, très à la mode à cette époque. 
+Sa sœur, Suzanne Émilie, est la femme du sculpteur Jean Félix Coutan de 1881 à 1883 (décès),
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mile_Desbeaux</t>
+          <t>Émile_Desbeaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur (1895)[9]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (1895)
  Officier de l'Instruction publique</t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89mile_Desbeaux</t>
+          <t>Émile_Desbeaux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,19 +595,126 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Théâtre
-Agence matrimoniale, Tresse, 1873.
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Agence matrimoniale, Tresse, 1873.
 Mon abonné, Tresse, 1874.
 Les Dumacheff ou le cocher fidèle, en 1 acte et deux tableaux, en collaboration avec Albert Fix et Henri Meyer, Librairie coloriée, 1876.
-Vingt mille francs, dans Théâtre de campagne, Paul Ollendorf, 1887.
-Romans
-Le Mystère de Westfield, roman américain, A. Degorce-Cadot , Paris, 1875.
+Vingt mille francs, dans Théâtre de campagne, Paul Ollendorf, 1887.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Émile_Desbeaux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89mile_Desbeaux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Mystère de Westfield, roman américain, A. Degorce-Cadot , Paris, 1875.
 La petite mendiante Marpon et Flammarion, 1889.
-Les trois petits mousquetaires, 1882.
-Ouvrages de vulgarisation pour adultes
-La physique populaire, Marpon et Flammarion, 1890.
-Ouvrages pédagogiques et de vulgarisation pour la jeunesse
-Le jardin de Mlle Jeanne: botanique du vieux jardinier,  chez P. Ducrocq Libraire-Éditeur, Paris, 1879 (Prix Montyon de l'Académie française, médailles de la société protectrice des animaux et de la société pour l'instruction élémentaire).
+Les trois petits mousquetaires, 1882.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Émile_Desbeaux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89mile_Desbeaux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages de vulgarisation pour adultes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La physique populaire, Marpon et Flammarion, 1890.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Émile_Desbeaux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89mile_Desbeaux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages pédagogiques et de vulgarisation pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le jardin de Mlle Jeanne: botanique du vieux jardinier,  chez P. Ducrocq Libraire-Éditeur, Paris, 1879 (Prix Montyon de l'Académie française, médailles de la société protectrice des animaux et de la société pour l'instruction élémentaire).
 Les pourquoi de Mlle Suzanne, chez P. Ducrocq Libraire-Éditeur, Paris, 1880.
 Les parce que de Mlle Suzanne, chez P. Ducrocq Libraire-Éditeur, Paris, 1882 (Honoré d'une médaille de la société protectrice des animaux).
 Les découvertes de Mr Jean: la terre et la mer,  chez P. Ducrocq Libraire-Éditeur, Paris, 1882
